--- a/评论_带行为属性.xlsx
+++ b/评论_带行为属性.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Sun Jun 23 23:44:50 +0800 2024</t>
+  </si>
+  <si>
+    <t>反对</t>
   </si>
   <si>
     <t>琥珀川的部屋</t>
@@ -867,7 +870,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,13 +880,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1353,148 +1349,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1851,8 +1847,8 @@
   <sheetPr/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2015,7 +2011,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2038,7 +2034,7 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2153,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2268,7 +2264,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2291,7 +2287,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2299,10 +2295,10 @@
         <v>5047870000000000</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>47</v>
@@ -2311,10 +2307,10 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2322,10 +2318,10 @@
         <v>5047330000000000</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -2334,10 +2330,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2391,10 +2387,10 @@
         <v>5049570000000000</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -2403,10 +2399,10 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2414,10 +2410,10 @@
         <v>5048890000000000</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>9</v>
@@ -2426,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2437,10 +2433,10 @@
         <v>5048830000000000</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -2449,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2460,10 +2456,10 @@
         <v>5047990000000000</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2472,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2483,10 +2479,10 @@
         <v>5047510000000000</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2495,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -2506,10 +2502,10 @@
         <v>5046530000000000</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2518,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -2529,10 +2525,10 @@
         <v>5050500000000000</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2541,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -2552,10 +2548,10 @@
         <v>5049380000000000</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2564,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -2575,10 +2571,10 @@
         <v>5049180000000000</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2587,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2598,10 +2594,10 @@
         <v>5049150000000000</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2610,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2621,10 +2617,10 @@
         <v>5048910000000000</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2633,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2644,10 +2640,10 @@
         <v>5048910000000000</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2656,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2667,10 +2663,10 @@
         <v>5046900000000000</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2679,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -2690,10 +2686,10 @@
         <v>5046890000000000</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2702,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -2713,10 +2709,10 @@
         <v>5046760000000000</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2725,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -2736,10 +2732,10 @@
         <v>5046650000000000</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2748,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -2759,10 +2755,10 @@
         <v>5048840000000000</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2771,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -2782,10 +2778,10 @@
         <v>5048580000000000</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2794,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2805,10 +2801,10 @@
         <v>5046630000000000</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2817,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -2828,10 +2824,10 @@
         <v>5046960000000000</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2840,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -2851,10 +2847,10 @@
         <v>5049300000000000</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2863,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G44" t="s">
         <v>15</v>
@@ -2874,10 +2870,10 @@
         <v>5048200000000000</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2886,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2897,10 +2893,10 @@
         <v>5047640000000000</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2909,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2920,10 +2916,10 @@
         <v>5047410000000000</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -2932,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -2943,10 +2939,10 @@
         <v>5046760000000000</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2955,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2966,10 +2962,10 @@
         <v>5049800000000000</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2978,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -2989,10 +2985,10 @@
         <v>5049630000000000</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3001,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3012,10 +3008,10 @@
         <v>5049320000000000</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3024,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -3035,10 +3031,10 @@
         <v>5049200000000000</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3047,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3058,10 +3054,10 @@
         <v>5048540000000000</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3070,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3081,10 +3077,10 @@
         <v>5048510000000000</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3093,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3104,10 +3100,10 @@
         <v>5048490000000000</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3116,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3127,10 +3123,10 @@
         <v>5048410000000000</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3139,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -3150,10 +3146,10 @@
         <v>5048400000000000</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3162,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -3173,10 +3169,10 @@
         <v>5048240000000000</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3185,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3196,10 +3192,10 @@
         <v>5048150000000000</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3208,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3219,10 +3215,10 @@
         <v>5048110000000000</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3231,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3242,10 +3238,10 @@
         <v>5048110000000000</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3254,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -3265,10 +3261,10 @@
         <v>5048080000000000</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3277,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -3288,10 +3284,10 @@
         <v>5048060000000000</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3300,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3311,10 +3307,10 @@
         <v>5047190000000000</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3323,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3334,10 +3330,10 @@
         <v>5047030000000000</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3346,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3357,10 +3353,10 @@
         <v>5046950000000000</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3369,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G66" t="s">
         <v>32</v>
@@ -3380,10 +3376,10 @@
         <v>5046920000000000</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3392,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3403,10 +3399,10 @@
         <v>5046850000000000</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3415,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G68" t="s">
         <v>10</v>
@@ -3426,10 +3422,10 @@
         <v>5046780000000000</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3438,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -3449,10 +3445,10 @@
         <v>5046760000000000</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3461,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
@@ -3472,10 +3468,10 @@
         <v>5046760000000000</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3484,10 +3480,10 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3495,10 +3491,10 @@
         <v>5046680000000000</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3507,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3518,10 +3514,10 @@
         <v>5046680000000000</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3530,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3541,10 +3537,10 @@
         <v>5046650000000000</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3553,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3564,10 +3560,10 @@
         <v>5046550000000000</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -3576,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
@@ -3587,10 +3583,10 @@
         <v>5046550000000000</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3599,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
@@ -3610,10 +3606,10 @@
         <v>5046550000000000</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -3622,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3633,10 +3629,10 @@
         <v>5049890000000000</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3645,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3656,10 +3652,10 @@
         <v>5047440000000000</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3668,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3679,10 +3675,10 @@
         <v>5047880000000000</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80">
         <v>12</v>
@@ -3691,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
@@ -3702,10 +3698,10 @@
         <v>5048360000000000</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -3714,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -3725,10 +3721,10 @@
         <v>5050210000000000</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3737,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
@@ -3748,10 +3744,10 @@
         <v>5049610000000000</v>
       </c>
       <c r="B83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3760,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3771,10 +3767,10 @@
         <v>5046970000000000</v>
       </c>
       <c r="B84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3783,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3794,10 +3790,10 @@
         <v>5048250000000000</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -3806,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3817,10 +3813,10 @@
         <v>5049370000000000</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3829,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
@@ -3840,10 +3836,10 @@
         <v>5049900000000000</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3852,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3863,10 +3859,10 @@
         <v>5049900000000000</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3875,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -3886,10 +3882,10 @@
         <v>5049170000000000</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3898,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -3909,10 +3905,10 @@
         <v>5048950000000000</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3921,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G90" t="s">
         <v>15</v>
@@ -3932,10 +3928,10 @@
         <v>5048790000000000</v>
       </c>
       <c r="B91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91">
         <v>7</v>
@@ -3944,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -3955,10 +3951,10 @@
         <v>5048590000000000</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -3967,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G92" t="s">
         <v>10</v>
@@ -3978,10 +3974,10 @@
         <v>5048380000000000</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -3990,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -4001,10 +3997,10 @@
         <v>5048380000000000</v>
       </c>
       <c r="B94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -4013,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G94" t="s">
         <v>10</v>
@@ -4024,10 +4020,10 @@
         <v>5047980000000000</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4036,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G95" t="s">
         <v>10</v>
@@ -4047,10 +4043,10 @@
         <v>5047000000000000</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4059,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4070,10 +4066,10 @@
         <v>5046760000000000</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4082,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4093,10 +4089,10 @@
         <v>5046550000000000</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4105,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G98" t="s">
         <v>10</v>
@@ -4116,10 +4112,10 @@
         <v>5046550000000000</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -4128,7 +4124,7 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -4139,10 +4135,10 @@
         <v>5047440000000000</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -4151,10 +4147,10 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4162,10 +4158,10 @@
         <v>5047880000000000</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D101">
         <v>12</v>
@@ -4174,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -4185,10 +4181,10 @@
         <v>5048360000000000</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4197,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G102" t="s">
         <v>10</v>
@@ -4208,10 +4204,10 @@
         <v>5050210000000000</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4220,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
@@ -4231,10 +4227,10 @@
         <v>5049610000000000</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4243,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -4254,10 +4250,10 @@
         <v>5046970000000000</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4266,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
@@ -4277,10 +4273,10 @@
         <v>5046550000000000</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C106" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -4289,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
